--- a/demoData/demo数据.xlsx
+++ b/demoData/demo数据.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="井号" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="井斜" sheetId="4" r:id="rId4"/>
     <sheet name="分层" sheetId="5" r:id="rId5"/>
     <sheet name="解释结论" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">分层!$A$1:$D$51</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="49">
   <si>
     <t>木100-2</t>
   </si>
@@ -145,6 +146,38 @@
   </si>
   <si>
     <t>chang7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层段顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对吸水量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木100-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木100-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木102-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.4.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7623,7 +7656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -33626,4 +33659,123 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>201411</v>
+      </c>
+      <c r="C2">
+        <v>2609.4</v>
+      </c>
+      <c r="D2">
+        <v>2616.3000000000002</v>
+      </c>
+      <c r="E2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>201411</v>
+      </c>
+      <c r="C3">
+        <v>2619.8000000000002</v>
+      </c>
+      <c r="D3">
+        <v>2629.4</v>
+      </c>
+      <c r="E3">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>201411</v>
+      </c>
+      <c r="C4">
+        <v>2636.8</v>
+      </c>
+      <c r="D4">
+        <v>2646.1</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>201011</v>
+      </c>
+      <c r="C5">
+        <v>2491.1</v>
+      </c>
+      <c r="D5">
+        <v>2494.3000000000002</v>
+      </c>
+      <c r="E5">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>201011</v>
+      </c>
+      <c r="C6">
+        <v>2499.1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>7.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/demoData/demo数据.xlsx
+++ b/demoData/demo数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="井号" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="井斜" sheetId="4" r:id="rId4"/>
     <sheet name="分层" sheetId="5" r:id="rId5"/>
     <sheet name="解释结论" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="吸水剖面" sheetId="7" r:id="rId7"/>
+    <sheet name="压降曲线" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">分层!$A$1:$D$51</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="51">
   <si>
     <t>木100-2</t>
   </si>
@@ -178,6 +179,14 @@
   </si>
   <si>
     <t>25.4.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -33665,7 +33674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -33778,4 +33787,604 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>90</v>
+      </c>
+      <c r="C24">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>110</v>
+      </c>
+      <c r="C26">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>80</v>
+      </c>
+      <c r="C49">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>90</v>
+      </c>
+      <c r="C50">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>110</v>
+      </c>
+      <c r="C52">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>120</v>
+      </c>
+      <c r="C53">
+        <v>3.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>